--- a/performance-tables/2017/england_ks4-mats-performance.xlsx
+++ b/performance-tables/2017/england_ks4-mats-performance.xlsx
@@ -159,31 +159,31 @@
     <t>Close to average</t>
   </si>
   <si>
+    <t>138918;139043;139058;139062;139063;139271;139288;139578;139867</t>
+  </si>
+  <si>
+    <t>SP00010</t>
+  </si>
+  <si>
+    <t>Aldridge Education</t>
+  </si>
+  <si>
+    <t>South East and South London</t>
+  </si>
+  <si>
+    <t>135580;136164;137063;138388;139924</t>
+  </si>
+  <si>
+    <t>TR00081</t>
+  </si>
+  <si>
+    <t>ARK Schools</t>
+  </si>
+  <si>
     <t>Significantly above average</t>
   </si>
   <si>
-    <t>139058;138918;139043;139058;139062;139063;139271;139288;139578;139867</t>
-  </si>
-  <si>
-    <t>SP00010</t>
-  </si>
-  <si>
-    <t>Aldridge Education</t>
-  </si>
-  <si>
-    <t>South East and South London</t>
-  </si>
-  <si>
-    <t>135580;136164;137063;138388;139924</t>
-  </si>
-  <si>
-    <t>TR00081</t>
-  </si>
-  <si>
-    <t>ARK Schools</t>
-  </si>
-  <si>
-    <t>135242;135584;135600;131752;138518;131752;135242;135315;135389;135584;135600;135965;135970;137578;138267;138518;138681;139821;139996;141019</t>
+    <t>131752;135242;135315;135389;135584;135600;135965;135970;137578;138267;138518;138681;139821;139996;141019</t>
   </si>
   <si>
     <t>TR00103</t>
@@ -246,7 +246,7 @@
     <t>South West</t>
   </si>
   <si>
-    <t>137106;135295;135300;135959;136708;137106;138394;141042</t>
+    <t>135295;135300;135959;136708;137106;138394;141042</t>
   </si>
   <si>
     <t>TR00375</t>
@@ -303,7 +303,7 @@
     <t>Delta Academies Trust</t>
   </si>
   <si>
-    <t>137141;135942;136343;136675;137066;137141;137453;137464;137472;138006;138082;139059;139076</t>
+    <t>135942;136343;136675;137066;137141;137453;137464;137472;138006;138082;139059;139076</t>
   </si>
   <si>
     <t>SP00172</t>
@@ -312,7 +312,7 @@
     <t>Diocese of London</t>
   </si>
   <si>
-    <t>134314;133386;135507;135531;137546;138607;139989</t>
+    <t>133386;134314;135507;135531;137546;138607;139989</t>
   </si>
   <si>
     <t>SP00179</t>
@@ -321,7 +321,7 @@
     <t>Diocese of Oxford</t>
   </si>
   <si>
-    <t>135879;135675;137280</t>
+    <t>135675;135879;137280</t>
   </si>
   <si>
     <t>SP00589</t>
@@ -348,7 +348,7 @@
     <t>E-ACT</t>
   </si>
   <si>
-    <t>138073;135907;135911;135934;135973;136032;136115;137706;137864;138073;138235;138374</t>
+    <t>135907;135911;135934;135973;136032;136115;137706;137864;138073;138235;138374</t>
   </si>
   <si>
     <t>TR00620</t>
@@ -399,7 +399,7 @@
     <t>Greenwood Academies Trust</t>
   </si>
   <si>
-    <t>135881;135881;136217;136948;137184;137880;138569;139564;139957</t>
+    <t>135881;136217;136948;137184;137880;138569;139564;139957</t>
   </si>
   <si>
     <t>SP00251</t>
@@ -417,7 +417,7 @@
     <t>Harris Federation</t>
   </si>
   <si>
-    <t>139703;131747;131897;132711;134225;135249;135311;135677;135816;135955;137121;137379;137549;138449;138495;139906;140985</t>
+    <t>131747;131897;132711;134225;135249;135311;135677;135816;135955;137121;137379;137549;138449;138495;139703;139906;140985</t>
   </si>
   <si>
     <t>TR01520</t>
@@ -519,7 +519,7 @@
     <t>Oasis Community Learning</t>
   </si>
   <si>
-    <t>135958;135968;134311;135176;135209;135628;135629;135654;135661;135663;135671;135721;135958;135968;136027;139995</t>
+    <t>134311;135176;135209;135628;135629;135654;135661;135663;135671;135721;135958;135968;136027;139995</t>
   </si>
   <si>
     <t>SP00560</t>
@@ -699,7 +699,7 @@
     <t>United Learning Trust</t>
   </si>
   <si>
-    <t>135296;135364;135966;130912;131749;131895;131896;132727;134224;134814;134815;135071;135262;135296;135364;135365;135620;135621;135649;135760;135962;135966;137782;139258;139282;140007;140008;140515;140679</t>
+    <t>130912;131749;131895;131896;132727;134224;134814;134815;135071;135262;135296;135364;135365;135620;135621;135649;135760;135962;135966;137782;139258;139282;140007;140008;140515;140679</t>
   </si>
   <si>
     <t>TR02376</t>
@@ -1573,10 +1573,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1765,10 +1761,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="AA2">
-        <v>-0.6</v>
+        <v>-0.63</v>
       </c>
       <c r="AB2">
-        <v>-0.53</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2" s="1">
         <v>0.20399999999999999</v>
@@ -1866,16 +1862,16 @@
         <v>0.13</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3">
         <v>-0.23</v>
       </c>
       <c r="AA3">
-        <v>-0.3</v>
+        <v>-0.36</v>
       </c>
       <c r="AB3">
-        <v>-0.16</v>
+        <v>-0.09</v>
       </c>
       <c r="AC3" s="1">
         <v>0.40400000000000003</v>
@@ -1896,12 +1892,12 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="AI3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>4927</v>
@@ -1910,10 +1906,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1979,10 +1975,10 @@
         <v>-0.68</v>
       </c>
       <c r="AA4">
-        <v>-0.78</v>
+        <v>-0.86</v>
       </c>
       <c r="AB4">
-        <v>-0.59</v>
+        <v>-0.51</v>
       </c>
       <c r="AC4" s="1">
         <v>0.14899999999999999</v>
@@ -2003,12 +1999,12 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="AI4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>2157</v>
@@ -2017,7 +2013,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -2068,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V5">
         <v>0.15</v>
@@ -2080,16 +2076,16 @@
         <v>0.21</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z5">
         <v>0.02</v>
       </c>
       <c r="AA5">
-        <v>-0.03</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AB5">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" s="1">
         <v>0.53800000000000003</v>
@@ -2193,10 +2189,10 @@
         <v>-0.21</v>
       </c>
       <c r="AA6">
-        <v>-0.34</v>
+        <v>-0.46</v>
       </c>
       <c r="AB6">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AC6" s="1">
         <v>0.376</v>
@@ -2234,7 +2230,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2300,10 +2296,10 @@
         <v>-0.3</v>
       </c>
       <c r="AA7">
-        <v>-0.44</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="AB7">
-        <v>-0.16</v>
+        <v>-0.04</v>
       </c>
       <c r="AC7" s="1">
         <v>0.72499999999999998</v>
@@ -2395,7 +2391,7 @@
         <v>0.08</v>
       </c>
       <c r="W8">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="X8">
         <v>0.21</v>
@@ -2407,10 +2403,10 @@
         <v>-0.74</v>
       </c>
       <c r="AA8">
-        <v>-0.85</v>
+        <v>-0.95</v>
       </c>
       <c r="AB8">
-        <v>-0.62</v>
+        <v>-0.52</v>
       </c>
       <c r="AC8" s="1">
         <v>0.5</v>
@@ -2448,7 +2444,7 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2505,7 +2501,7 @@
         <v>-0.35</v>
       </c>
       <c r="X9">
-        <v>-0.08</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Y9" t="s">
         <v>39</v>
@@ -2514,10 +2510,10 @@
         <v>-0.84</v>
       </c>
       <c r="AA9">
-        <v>-1.01</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AB9">
-        <v>-0.68</v>
+        <v>-0.53</v>
       </c>
       <c r="AC9" s="1">
         <v>0.248</v>
@@ -2621,10 +2617,10 @@
         <v>-0.53</v>
       </c>
       <c r="AA10">
-        <v>-0.62</v>
+        <v>-0.7</v>
       </c>
       <c r="AB10">
-        <v>-0.44</v>
+        <v>-0.35</v>
       </c>
       <c r="AC10" s="1">
         <v>0.39900000000000002</v>
@@ -2722,16 +2718,16 @@
         <v>-0.09</v>
       </c>
       <c r="Y11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11">
         <v>-0.25</v>
       </c>
       <c r="AA11">
-        <v>-0.33</v>
+        <v>-0.4</v>
       </c>
       <c r="AB11">
-        <v>-0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="AC11" s="1">
         <v>0.17599999999999999</v>
@@ -2817,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V12">
         <v>0.22</v>
@@ -2835,10 +2831,10 @@
         <v>-0.21</v>
       </c>
       <c r="AA12">
-        <v>-0.35</v>
+        <v>-0.47</v>
       </c>
       <c r="AB12">
-        <v>-0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AC12" s="1">
         <v>0.52900000000000003</v>
@@ -2942,10 +2938,10 @@
         <v>-0.39</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AB13">
-        <v>-0.28000000000000003</v>
+        <v>-0.18</v>
       </c>
       <c r="AC13" s="1">
         <v>0.245</v>
@@ -3043,16 +3039,16 @@
         <v>0.13</v>
       </c>
       <c r="Y14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14">
         <v>-0.16</v>
       </c>
       <c r="AA14">
-        <v>-0.25</v>
+        <v>-0.34</v>
       </c>
       <c r="AB14">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AC14" s="1">
         <v>0.28299999999999997</v>
@@ -3144,7 +3140,7 @@
         <v>-0.32</v>
       </c>
       <c r="W15">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="X15">
         <v>-0.21</v>
@@ -3156,10 +3152,10 @@
         <v>-0.7</v>
       </c>
       <c r="AA15">
-        <v>-0.81</v>
+        <v>-0.91</v>
       </c>
       <c r="AB15">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15" s="1">
         <v>0.28199999999999997</v>
@@ -3245,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V16">
         <v>0.1</v>
@@ -3257,16 +3253,16 @@
         <v>0.18</v>
       </c>
       <c r="Y16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z16">
         <v>-0.1</v>
       </c>
       <c r="AA16">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="AB16">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AC16" s="1">
         <v>0.379</v>
@@ -3352,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="U17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V17">
         <v>0.23</v>
@@ -3364,16 +3360,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="Y17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z17">
         <v>-0.01</v>
       </c>
       <c r="AA17">
-        <v>-0.08</v>
+        <v>-0.13</v>
       </c>
       <c r="AB17">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="AC17" s="1">
         <v>0.25800000000000001</v>
@@ -3459,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V18">
         <v>0.53</v>
@@ -3471,16 +3467,16 @@
         <v>0.61</v>
       </c>
       <c r="Y18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z18">
         <v>0.34</v>
       </c>
       <c r="AA18">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AB18">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="AC18" s="1">
         <v>0.51</v>
@@ -3578,16 +3574,16 @@
         <v>0.18</v>
       </c>
       <c r="Y19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z19">
         <v>-0.1</v>
       </c>
       <c r="AA19">
-        <v>-0.22</v>
+        <v>-0.32</v>
       </c>
       <c r="AB19">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="AC19" s="1">
         <v>0.245</v>
@@ -3673,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="U20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V20">
         <v>0.1</v>
@@ -3691,10 +3687,10 @@
         <v>-0.38</v>
       </c>
       <c r="AA20">
-        <v>-0.49</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="AB20">
-        <v>-0.28000000000000003</v>
+        <v>-0.19</v>
       </c>
       <c r="AC20" s="1">
         <v>0.224</v>
@@ -3780,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V21">
         <v>0.53</v>
@@ -3792,16 +3788,16 @@
         <v>0.64</v>
       </c>
       <c r="Y21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z21">
         <v>0.41</v>
       </c>
       <c r="AA21">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="AB21">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="AC21" s="1">
         <v>0.51600000000000001</v>
@@ -3899,16 +3895,16 @@
         <v>-0.04</v>
       </c>
       <c r="Y22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22">
         <v>-0.25</v>
       </c>
       <c r="AA22">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="AB22">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="AC22" s="1">
         <v>0.219</v>
@@ -4012,10 +4008,10 @@
         <v>-1.02</v>
       </c>
       <c r="AA23">
-        <v>-1.1399999999999999</v>
+        <v>-1.25</v>
       </c>
       <c r="AB23">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AC23" s="1">
         <v>0.246</v>
@@ -4119,10 +4115,10 @@
         <v>-0.81</v>
       </c>
       <c r="AA24">
-        <v>-0.92</v>
+        <v>-1.02</v>
       </c>
       <c r="AB24">
-        <v>-0.7</v>
+        <v>-0.61</v>
       </c>
       <c r="AC24" s="1">
         <v>0.27300000000000002</v>
@@ -4226,10 +4222,10 @@
         <v>-0.68</v>
       </c>
       <c r="AA25">
-        <v>-0.78</v>
+        <v>-0.87</v>
       </c>
       <c r="AB25">
-        <v>-0.57999999999999996</v>
+        <v>-0.49</v>
       </c>
       <c r="AC25" s="1">
         <v>0.19</v>
@@ -4327,16 +4323,16 @@
         <v>-0.03</v>
       </c>
       <c r="Y26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z26">
         <v>-0.22</v>
       </c>
       <c r="AA26">
-        <v>-0.33</v>
+        <v>-0.43</v>
       </c>
       <c r="AB26">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
         <v>0.13400000000000001</v>
@@ -4440,10 +4436,10 @@
         <v>-0.61</v>
       </c>
       <c r="AA27">
-        <v>-0.67</v>
+        <v>-0.72</v>
       </c>
       <c r="AB27">
-        <v>-0.55000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27" s="1">
         <v>0.55400000000000005</v>
@@ -4481,7 +4477,7 @@
         <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -4547,10 +4543,10 @@
         <v>-0.38</v>
       </c>
       <c r="AA28">
-        <v>-0.49</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="AB28">
-        <v>-0.28000000000000003</v>
+        <v>-0.19</v>
       </c>
       <c r="AC28" s="1">
         <v>0.38800000000000001</v>
@@ -4636,7 +4632,7 @@
         <v>13</v>
       </c>
       <c r="U29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V29">
         <v>0.54</v>
@@ -4648,16 +4644,16 @@
         <v>0.6</v>
       </c>
       <c r="Y29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z29">
         <v>0.43</v>
       </c>
       <c r="AA29">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="AB29">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="AC29" s="1">
         <v>0.58899999999999997</v>
@@ -4761,10 +4757,10 @@
         <v>-1.81</v>
       </c>
       <c r="AA30">
-        <v>-1.99</v>
+        <v>-2.15</v>
       </c>
       <c r="AB30">
-        <v>-1.64</v>
+        <v>-1.48</v>
       </c>
       <c r="AC30" s="1">
         <v>6.7000000000000004E-2</v>
@@ -4850,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V31">
         <v>0.55000000000000004</v>
@@ -4862,16 +4858,16 @@
         <v>0.68</v>
       </c>
       <c r="Y31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z31">
         <v>0.18</v>
       </c>
       <c r="AA31">
-        <v>0.05</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AB31">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="AC31" s="1">
         <v>0.35099999999999998</v>
@@ -4909,7 +4905,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32">
         <v>13</v>
@@ -4975,10 +4971,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>-0.56000000000000005</v>
+        <v>-0.61</v>
       </c>
       <c r="AB32">
-        <v>-0.45</v>
+        <v>-0.4</v>
       </c>
       <c r="AC32" s="1">
         <v>0.26200000000000001</v>
@@ -5016,7 +5012,7 @@
         <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -5064,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V33">
         <v>0.36</v>
@@ -5076,16 +5072,16 @@
         <v>0.47</v>
       </c>
       <c r="Y33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z33">
         <v>-0.05</v>
       </c>
       <c r="AA33">
-        <v>-0.2</v>
+        <v>-0.34</v>
       </c>
       <c r="AB33">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="AC33" s="1">
         <v>0.34200000000000003</v>
@@ -5177,7 +5173,7 @@
         <v>-0.02</v>
       </c>
       <c r="W34">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="X34">
         <v>0.09</v>
@@ -5189,10 +5185,10 @@
         <v>-0.27</v>
       </c>
       <c r="AA34">
-        <v>-0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="AC34" s="1">
         <v>0.188</v>
@@ -5230,7 +5226,7 @@
         <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -5296,10 +5292,10 @@
         <v>-0.88</v>
       </c>
       <c r="AA35">
-        <v>-1.02</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AB35">
-        <v>-0.74</v>
+        <v>-0.62</v>
       </c>
       <c r="AC35" s="1">
         <v>0.28199999999999997</v>
@@ -5337,7 +5333,7 @@
         <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -5403,10 +5399,10 @@
         <v>-0.62</v>
       </c>
       <c r="AA36">
-        <v>-0.71</v>
+        <v>-0.79</v>
       </c>
       <c r="AB36">
-        <v>-0.53</v>
+        <v>-0.46</v>
       </c>
       <c r="AC36" s="1">
         <v>0.39200000000000002</v>
@@ -5513,10 +5509,10 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="AB37">
-        <v>-0.38</v>
+        <v>-0.46</v>
       </c>
       <c r="AC37">
-        <v>-0.19</v>
+        <v>-0.11</v>
       </c>
       <c r="AD37" s="1">
         <v>0.67500000000000004</v>
@@ -5620,10 +5616,10 @@
         <v>-0.49</v>
       </c>
       <c r="AA38">
-        <v>-0.56000000000000005</v>
+        <v>-0.62</v>
       </c>
       <c r="AB38">
-        <v>-0.42</v>
+        <v>-0.36</v>
       </c>
       <c r="AC38" s="1">
         <v>0.51700000000000002</v>
@@ -5727,10 +5723,10 @@
         <v>-0.37</v>
       </c>
       <c r="AA39">
-        <v>-0.47</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="AB39">
-        <v>-0.27</v>
+        <v>-0.19</v>
       </c>
       <c r="AC39" s="1">
         <v>0.16500000000000001</v>
@@ -5834,10 +5830,10 @@
         <v>-0.31</v>
       </c>
       <c r="AA40">
-        <v>-0.35</v>
+        <v>-0.39</v>
       </c>
       <c r="AB40">
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="AC40" s="1">
         <v>0.31</v>
@@ -5935,16 +5931,16 @@
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41">
         <v>-0.28000000000000003</v>
       </c>
       <c r="AA41">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
       <c r="AB41">
-        <v>-0.24</v>
+        <v>-0.21</v>
       </c>
       <c r="AC41" s="1">
         <v>0.23300000000000001</v>
@@ -6030,7 +6026,7 @@
         <v>5</v>
       </c>
       <c r="U42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V42">
         <v>0.48</v>
@@ -6042,16 +6038,16 @@
         <v>0.54</v>
       </c>
       <c r="Y42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z42">
         <v>0.21</v>
       </c>
       <c r="AA42">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AB42">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="AC42" s="1">
         <v>0.28899999999999998</v>
@@ -6137,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="U43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V43">
         <v>0.26</v>
@@ -6149,16 +6145,16 @@
         <v>0.45</v>
       </c>
       <c r="Y43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z43">
         <v>-0.13</v>
       </c>
       <c r="AA43">
-        <v>-0.3</v>
+        <v>-0.46</v>
       </c>
       <c r="AB43">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AC43" s="1">
         <v>0.378</v>
@@ -6262,10 +6258,10 @@
         <v>-0.31</v>
       </c>
       <c r="AA44">
-        <v>-0.42</v>
+        <v>-0.52</v>
       </c>
       <c r="AB44">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AC44" s="1">
         <v>0.39800000000000002</v>
@@ -6303,7 +6299,7 @@
         <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -6363,16 +6359,16 @@
         <v>0.08</v>
       </c>
       <c r="Y45" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Z45">
         <v>-0.45</v>
       </c>
       <c r="AA45">
-        <v>-0.56000000000000005</v>
+        <v>-0.66</v>
       </c>
       <c r="AB45">
-        <v>-0.35</v>
+        <v>-0.25</v>
       </c>
       <c r="AC45" s="1">
         <v>0.22700000000000001</v>
@@ -6476,10 +6472,10 @@
         <v>-0.62</v>
       </c>
       <c r="AA46">
-        <v>-0.73</v>
+        <v>-0.82</v>
       </c>
       <c r="AB46">
-        <v>-0.52</v>
+        <v>-0.43</v>
       </c>
       <c r="AC46" s="1">
         <v>0.318</v>
@@ -6577,16 +6573,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Y47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47">
         <v>-0.2</v>
       </c>
       <c r="AA47">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="AB47">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="AC47" s="1">
         <v>0.23499999999999999</v>
@@ -6690,10 +6686,10 @@
         <v>-0.56000000000000005</v>
       </c>
       <c r="AA48">
-        <v>-0.66</v>
+        <v>-0.75</v>
       </c>
       <c r="AB48">
-        <v>-0.46</v>
+        <v>-0.37</v>
       </c>
       <c r="AC48" s="1">
         <v>0.308</v>
@@ -6779,7 +6775,7 @@
         <v>6</v>
       </c>
       <c r="U49" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V49">
         <v>0.31</v>
@@ -6791,16 +6787,16 @@
         <v>0.38</v>
       </c>
       <c r="Y49" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z49">
         <v>-0.13</v>
       </c>
       <c r="AA49">
-        <v>-0.23</v>
+        <v>-0.32</v>
       </c>
       <c r="AB49">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AC49" s="1">
         <v>0.52800000000000002</v>
@@ -6904,10 +6900,10 @@
         <v>-0.36</v>
       </c>
       <c r="AA50">
-        <v>-0.48</v>
+        <v>-0.59</v>
       </c>
       <c r="AB50">
-        <v>-0.24</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="AC50" s="1">
         <v>0.42199999999999999</v>
@@ -7011,10 +7007,10 @@
         <v>-1.1299999999999999</v>
       </c>
       <c r="AA51">
-        <v>-1.24</v>
+        <v>-1.34</v>
       </c>
       <c r="AB51">
-        <v>-1.02</v>
+        <v>-0.93</v>
       </c>
       <c r="AC51" s="1">
         <v>0.21</v>
@@ -7100,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="U52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V52">
         <v>0.23</v>
@@ -7112,16 +7108,16 @@
         <v>0.32</v>
       </c>
       <c r="Y52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z52">
         <v>-0.1</v>
       </c>
       <c r="AA52">
-        <v>-0.23</v>
+        <v>-0.34</v>
       </c>
       <c r="AB52">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC52" s="1">
         <v>0.42899999999999999</v>
@@ -7207,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="U53" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V53">
         <v>0.27</v>
@@ -7219,16 +7215,16 @@
         <v>0.38</v>
       </c>
       <c r="Y53" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z53">
         <v>0.11</v>
       </c>
       <c r="AA53">
-        <v>-0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="AB53">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="AC53" s="1">
         <v>0.33600000000000002</v>
@@ -7314,28 +7310,28 @@
         <v>2</v>
       </c>
       <c r="U54" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V54">
         <v>0.45</v>
       </c>
       <c r="W54">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="X54">
         <v>0.69</v>
       </c>
       <c r="Y54" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z54">
         <v>0.51</v>
       </c>
       <c r="AA54">
-        <v>0.23</v>
+        <v>-0.02</v>
       </c>
       <c r="AB54">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="AC54" s="1">
         <v>0.59799999999999998</v>
@@ -7373,7 +7369,7 @@
         <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -7433,16 +7429,16 @@
         <v>0.23</v>
       </c>
       <c r="Y55" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z55">
         <v>-0.12</v>
       </c>
       <c r="AA55">
-        <v>-0.23</v>
+        <v>-0.33</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC55" s="1">
         <v>0.35799999999999998</v>
@@ -7480,7 +7476,7 @@
         <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -7528,28 +7524,28 @@
         <v>1</v>
       </c>
       <c r="U56" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V56">
         <v>0.68</v>
       </c>
       <c r="W56">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X56">
         <v>0.8</v>
       </c>
       <c r="Y56" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z56">
         <v>0.39</v>
       </c>
       <c r="AA56">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="AB56">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="AC56" s="1">
         <v>0.63</v>
@@ -7653,10 +7649,10 @@
         <v>-0.74</v>
       </c>
       <c r="AA57">
-        <v>-0.84</v>
+        <v>-0.93</v>
       </c>
       <c r="AB57">
-        <v>-0.63</v>
+        <v>-0.54</v>
       </c>
       <c r="AC57" s="1">
         <v>0.216</v>
@@ -7742,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="U58" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V58">
         <v>0.15</v>
@@ -7760,10 +7756,10 @@
         <v>-0.43</v>
       </c>
       <c r="AA58">
-        <v>-0.57999999999999996</v>
+        <v>-0.71</v>
       </c>
       <c r="AB58">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="AC58" s="1">
         <v>0.54900000000000004</v>
@@ -7855,7 +7851,7 @@
         <v>-0.51</v>
       </c>
       <c r="W59">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="X59">
         <v>-0.38</v>
@@ -7867,10 +7863,10 @@
         <v>-0.93</v>
       </c>
       <c r="AA59">
-        <v>-1.05</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AB59">
-        <v>-0.82</v>
+        <v>-0.71</v>
       </c>
       <c r="AC59" s="1">
         <v>0.314</v>
@@ -7956,7 +7952,7 @@
         <v>20</v>
       </c>
       <c r="U60" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="V60">
         <v>0.22</v>
@@ -7968,16 +7964,16 @@
         <v>0.26</v>
       </c>
       <c r="Y60" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z60">
         <v>0.05</v>
       </c>
       <c r="AA60">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AB60">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AC60" s="1">
         <v>0.21099999999999999</v>
@@ -8081,10 +8077,10 @@
         <v>-0.85</v>
       </c>
       <c r="AA61">
-        <v>-0.94</v>
+        <v>-1.01</v>
       </c>
       <c r="AB61">
-        <v>-0.77</v>
+        <v>-0.7</v>
       </c>
       <c r="AC61" s="1">
         <v>0.20899999999999999</v>
@@ -8182,16 +8178,16 @@
         <v>0.24</v>
       </c>
       <c r="Y62" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z62">
         <v>-0.03</v>
       </c>
       <c r="AA62">
-        <v>-0.13</v>
+        <v>-0.22</v>
       </c>
       <c r="AB62">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="AC62" s="1">
         <v>0.25800000000000001</v>
@@ -8229,7 +8225,7 @@
         <v>234</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63">
         <v>5</v>
@@ -8295,10 +8291,10 @@
         <v>-0.82</v>
       </c>
       <c r="AA63">
-        <v>-0.92</v>
+        <v>-1.01</v>
       </c>
       <c r="AB63">
-        <v>-0.72</v>
+        <v>-0.62</v>
       </c>
       <c r="AC63" s="1">
         <v>0.33800000000000002</v>
